--- a/medicine/Enfance/Jean-Marie_Defossez/Jean-Marie_Defossez.xlsx
+++ b/medicine/Enfance/Jean-Marie_Defossez/Jean-Marie_Defossez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marie Defossez est un écrivain belge né à Ransart le 27 août 1971, résidant aujourd'hui en Sarthe en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marie Defossez est un écrivain belge né à Ransart le 27 août 1971, résidant aujourd'hui en Sarthe en France.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minimaliste mais qualifié à maintes reprises de « charismatique », il a déjà été récompensé  par une cinquantaine de prix pour ses livres, sans pour autant être l'auteur le plus lu[2]. Il a reçu entre autres le Prix Marguerite-Audoux des collèges 2008, le Prix Québec-Wallonie-Bruxelles de littérature de jeunesse 2009, et le Prix Goya découverte 2014.
-Ses livres les plus importants sont Les Arckans, 'Envol pour le Paradis' et Pour tout l'or du monde[3]. Docteur en Zoologie, il est aussi l'auteur de livres  à visée écologique comme la série des Sauvenature parue chez Flammarion (qui fut adaptée en dessins animés) et la série Opération sauvetage éditée par Bayard[4],[5].
-À la suite d'une période de maladie, il a développé la méthode de coach-respiration et orienté ses écrits vers des essais d'épanouissement personnel[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minimaliste mais qualifié à maintes reprises de « charismatique », il a déjà été récompensé  par une cinquantaine de prix pour ses livres, sans pour autant être l'auteur le plus lu. Il a reçu entre autres le Prix Marguerite-Audoux des collèges 2008, le Prix Québec-Wallonie-Bruxelles de littérature de jeunesse 2009, et le Prix Goya découverte 2014.
+Ses livres les plus importants sont Les Arckans, 'Envol pour le Paradis' et Pour tout l'or du monde. Docteur en Zoologie, il est aussi l'auteur de livres  à visée écologique comme la série des Sauvenature parue chez Flammarion (qui fut adaptée en dessins animés) et la série Opération sauvetage éditée par Bayard,.
+À la suite d'une période de maladie, il a développé la méthode de coach-respiration et orienté ses écrits vers des essais d'épanouissement personnel.
 </t>
         </is>
       </c>
@@ -544,20 +558,22 @@
           <t>Quelques récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Marie Defossez a reçu de nombreux prix, dont :
- Prix Farniente 2007[7] pour Face Nord
- Prix Gayant Lecture 2008[8] pour Menace sur les tortues, illustré par Fabien Mense
+ Prix Farniente 2007 pour Face Nord
+ Prix Gayant Lecture 2008 pour Menace sur les tortues, illustré par Fabien Mense
  Prix Ruralivres en Pas-de-Calais
  Prix Marguerite-Audoux des collèges 2008 pour La Fiancée du désert
- Prix Libbylit 2008[9] pour Envol pour le paradis
+ Prix Libbylit 2008 pour Envol pour le paradis
  Prix Québec-Wallonie-Bruxelles de littérature de jeunesse 2009
  Prix Dimoitou Ouest-France 2009
- Prix Paul Hurtmans 2010[10] pour Envol pour le paradis
- Prix Paul Hurtmans 2012[10] pour  Pour tout l'or du monde
+ Prix Paul Hurtmans 2010 pour Envol pour le paradis
+ Prix Paul Hurtmans 2012 pour  Pour tout l'or du monde
  Prix des collégiens de la ville de Vannes 2012 pour Les Arckans
- Prix Goya découverte 2014[11] pour De retour chez les dinosaures</t>
+ Prix Goya découverte 2014 pour De retour chez les dinosaures</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,9 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour sauver les baleines, Rageot, 2017
 Le Chant des baleines, ill. de Diane le Feyer, Bayard jeunesse, 2015
